--- a/xlsx/kemerovo.xlsx
+++ b/xlsx/kemerovo.xlsx
@@ -4119,11 +4119,11 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1906900</v>
+        <v>3149900</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://autocenter-kemerovo.ru/auto/exeed/txl/cuv</t>
+          <t>https://autocenter-kemerovo.ru/auto/exeed/txl2/txl2</t>
         </is>
       </c>
       <c r="J54" t="n">

--- a/xlsx/kemerovo.xlsx
+++ b/xlsx/kemerovo.xlsx
@@ -4119,11 +4119,11 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3149900</v>
+        <v>1906900</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://autocenter-kemerovo.ru/auto/exeed/txl2/txl2</t>
+          <t>https://autocenter-kemerovo.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
       <c r="J54" t="n">

--- a/xlsx/kemerovo.xlsx
+++ b/xlsx/kemerovo.xlsx
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3950000</v>
+        <v>3850000</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1645000</v>
+        <v>1545000</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1800000</v>
+        <v>1700000</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1535990</v>
+        <v>1435990</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1650000</v>
+        <v>1550000</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1180,11 +1180,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1239600</v>
+        <v>1139600</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/shangan-cs35plus/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/shangan-cs35plus/</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1239600</v>
+        <v>1139600</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1539900</v>
+        <v>1439900</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>910300</v>
+        <v>810300</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2139900</v>
+        <v>2039900</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1543,11 +1543,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1110300</v>
+        <v>1010300</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/shangan-cs75fl/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/shangan-cs75fl/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1110300</v>
+        <v>1010300</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3269900</v>
+        <v>3169900</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3399900</v>
+        <v>3299900</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2329900</v>
+        <v>2229900</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2098,11 +2098,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1529900</v>
+        <v>1429900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/shangan-uni-k/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/shangan-uni-k/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1529900</v>
+        <v>1429900</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2869900</v>
+        <v>2769900</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2199900</v>
+        <v>2099900</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1280300</v>
+        <v>1180300</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1689900</v>
+        <v>1589900</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>850300</v>
+        <v>750300</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1910300</v>
+        <v>1810300</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1869900</v>
+        <v>1769900</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2963,11 +2963,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1099900</v>
+        <v>999900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/chery-tiggo-8/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/chery-tiggo-8/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1099900</v>
+        <v>999900</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3054,11 +3054,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2053400</v>
+        <v>1953400</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/chery-tiggo-8-pro/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/chery-tiggo-8-pro/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2053400</v>
+        <v>1953400</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2723630</v>
+        <v>2623630</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3512,11 +3512,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>320000</v>
+        <v>291000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://center-carplaza.ru/auto/datsun/mido/hatchback</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/datsun-mi-do/</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>391000</v>
+        <v>291000</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://center-carplaza.ru/auto/datsun/ondo/sedan</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/datsun-on-do/</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3642,11 +3642,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1529000</v>
+        <v>1429000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/dongfeng-580/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/dongfeng-580/</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1529000</v>
+        <v>1429000</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3748,11 +3748,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>929000</v>
+        <v>829000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/dongfeng-ax7/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/dongfeng-ax7/</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>929000</v>
+        <v>829000</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2099000</v>
+        <v>1999000</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3953,11 +3953,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/exeed-lx-1-6-awd/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/exeed-lx-1-6-awd/</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4101,29 +4101,29 @@
         </is>
       </c>
       <c r="D54" t="n">
+        <v>1806900</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://carplaza-avtosalon.ru/new_auto/exeed-txl/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2098900</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://autonova-nkz.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>1906900</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://kemerovo-autochina.ru/new_auto/exeed-txl/</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2098900</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://autonova-nkz.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3149900</v>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://autocenter-kemerovo.ru/auto/exeed/txl2/txl2</t>
+          <t>https://autocenter-kemerovo.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1906900</v>
+        <v>1806900</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4192,11 +4192,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2429000</v>
+        <v>2329000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/exeed-txl-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/exeed-txl-new/</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2429000</v>
+        <v>2329000</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>6000000</v>
+        <v>5900000</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4340,11 +4340,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4149900</v>
+        <v>4049900</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/exeed-vx-le/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/exeed-vx-le/</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4149900</v>
+        <v>4049900</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2308000</v>
+        <v>2208000</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4636,11 +4636,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1448300</v>
+        <v>1348300</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/faw-bestune-t77/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/faw-bestune-t77/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1448300</v>
+        <v>1348300</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2980000</v>
+        <v>2880000</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4818,11 +4818,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>849000</v>
+        <v>749000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/faw-besturn-x80/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/faw-besturn-x80/</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>849000</v>
+        <v>749000</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4958,11 +4958,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>640300</v>
+        <v>540300</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/faw-new-x40/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/faw-new-x40/</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>640300</v>
+        <v>540300</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5050,11 +5050,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2680000</v>
+        <v>2580000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/forthing-t5-evo/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/forthing-t5-evo/</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2680000</v>
+        <v>2580000</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3690000</v>
+        <v>3590000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/forthing-yacht/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/forthing-yacht/</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3690000</v>
+        <v>3590000</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3399000</v>
+        <v>3299000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/gac-gn8/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/gac-gn8/</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3399000</v>
+        <v>3299000</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5280,11 +5280,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1308900</v>
+        <v>1208900</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/gac-gs5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/gac-gs5/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1308900</v>
+        <v>1208900</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5371,11 +5371,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1852900</v>
+        <v>1752900</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/gac-gs8/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/gac-gs8/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1852900</v>
+        <v>1752900</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2344990</v>
+        <v>2244990</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1519990</v>
+        <v>1419990</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1839990</v>
+        <v>1739990</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -5961,11 +5961,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>871200</v>
+        <v>771200</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/geely-emgrand-x7-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/geely-emgrand-x7-new/</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>871200</v>
+        <v>771200</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1000300</v>
+        <v>900300</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2099300</v>
+        <v>1999300</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3269000</v>
+        <v>3169000</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1789000</v>
+        <v>1689000</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1679300</v>
+        <v>1579300</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2549000</v>
+        <v>2449000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2549000</v>
+        <v>2449000</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3199000</v>
+        <v>3099000</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -6863,11 +6863,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1920000</v>
+        <v>1820000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/haval-h9/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/haval-h9/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1920000</v>
+        <v>1820000</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -6954,11 +6954,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>889000</v>
+        <v>789000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/haval-jolion/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/haval-jolion/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>889000</v>
+        <v>789000</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>1679000</v>
+        <v>1579000</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>849000</v>
+        <v>749000</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1029900</v>
+        <v>929900</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -7470,11 +7470,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2229000</v>
+        <v>2129000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/hyundai-santa-fe-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/hyundai-santa-fe-new/</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2229000</v>
+        <v>2129000</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -7578,11 +7578,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>500300</v>
+        <v>400300</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/hyundai-new-solaris/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/hyundai-new-solaris/</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -7594,7 +7594,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>500300</v>
+        <v>400300</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -7686,11 +7686,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1130200</v>
+        <v>1030200</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/hyundai-new-sonata/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/hyundai-new-sonata/</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1130200</v>
+        <v>1030200</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -7784,11 +7784,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1494000</v>
+        <v>1419000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/hyundai/tucson/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/hyundai-tucson-new/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>1519000</v>
+        <v>1419000</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -7843,11 +7843,11 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>744000</v>
+        <v>649000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/jac/j7/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jac-j7/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>749000</v>
+        <v>649000</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1763300</v>
+        <v>1663300</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2099000</v>
+        <v>1999000</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -8064,11 +8064,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>569300</v>
+        <v>469300</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jac-s3/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jac-s3/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>569300</v>
+        <v>469300</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -8155,11 +8155,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>759300</v>
+        <v>659300</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jac-s5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jac-s5/</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>759300</v>
+        <v>659300</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -8236,11 +8236,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>749000</v>
+        <v>649000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jac-s7/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jac-s7/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>749000</v>
+        <v>649000</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2939900</v>
+        <v>2839900</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2089900</v>
+        <v>1989900</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2599900</v>
+        <v>2499900</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2999900</v>
+        <v>2899900</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -8786,11 +8786,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jetta-va3/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jetta-va3/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -8877,11 +8877,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jetta-vs5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jetta-vs5/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8919,7 +8919,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -8968,11 +8968,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1459000</v>
+        <v>1359000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/jetta-vs7/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/jetta-vs7/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>1459000</v>
+        <v>1359000</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -9059,11 +9059,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1269000</v>
+        <v>1169000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/kaiyi-e5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kaiyi-e5/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>1269000</v>
+        <v>1169000</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>1831650</v>
+        <v>1731650</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2114900</v>
+        <v>2014900</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -9424,11 +9424,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>859900</v>
+        <v>835300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kia/ceed/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-ceed/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>935300</v>
+        <v>835300</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -9499,11 +9499,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>960300</v>
+        <v>860300</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/kia-ceed-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-ceed-new/</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>960300</v>
+        <v>860300</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -9548,11 +9548,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>870300</v>
+        <v>770300</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/kia/new-ceedsw/ceedswnew</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-ceed-sw/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>870300</v>
+        <v>770300</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -9623,11 +9623,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>955300</v>
+        <v>855300</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/kia-ceed-sw-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-ceed-sw-new/</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -9639,7 +9639,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>955300</v>
+        <v>855300</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -9672,11 +9672,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1204900</v>
+        <v>1104900</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/kia/newcerato/newceratosedan</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-cerato/</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>1204900</v>
+        <v>1104900</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>1204900</v>
+        <v>1104900</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -9804,11 +9804,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1070300</v>
+        <v>970300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/kia/k5/sedan</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-k5/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1070300</v>
+        <v>970300</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -9977,11 +9977,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>569900</v>
+        <v>469900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/kia-picanto-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-picanto-new/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>569900</v>
+        <v>469900</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>1869900</v>
+        <v>1769900</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -10160,11 +10160,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>464900</v>
+        <v>410300</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kia/rio/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-rio-new/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10186,7 +10186,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>510300</v>
+        <v>410300</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -10219,11 +10219,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>586300</v>
+        <v>490300</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kia/rio_x/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-rio-x/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10245,7 +10245,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>590300</v>
+        <v>490300</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -10327,11 +10327,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>920300</v>
+        <v>870300</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kia/seltos/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-seltos/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -10369,7 +10369,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>970300</v>
+        <v>870300</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>1670300</v>
+        <v>1570300</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -10569,11 +10569,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>571200</v>
+        <v>471200</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/kia-new-soul/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-new-soul/</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>571200</v>
+        <v>471200</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -10618,11 +10618,11 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1354300</v>
+        <v>1254300</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/kia/new-sportage/sportagenew</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/kia-sportage/</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>1354300</v>
+        <v>1254300</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>1994929</v>
+        <v>1894929</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -11609,11 +11609,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1213900</v>
+        <v>1113900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://lada-kemerovo42.ru/new_auto/lada-largus-universal-5-mest/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-largus-universal-5-mest/</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -11633,7 +11633,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1213900</v>
+        <v>1113900</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -11690,11 +11690,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1244900</v>
+        <v>1144900</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://lada-kemerovo42.ru/new_auto/lada-largus-universal-7-mest/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-largus-universal-7-mest/</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -11706,7 +11706,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1244900</v>
+        <v>1144900</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -11755,11 +11755,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1318900</v>
+        <v>1218900</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://lada-kemerovo42.ru/new_auto/lada-largus-cross/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-largus-cross/</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>1318900</v>
+        <v>1218900</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -11922,11 +11922,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1201900</v>
+        <v>1101900</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://lada-kemerovo42.ru/new_auto/lada-largus-furgon/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-largus-furgon/</t>
         </is>
       </c>
       <c r="J173" t="n">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>1201900</v>
+        <v>1101900</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -12046,11 +12046,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>415300</v>
+        <v>315300</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/niva-new/cuv</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva/</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>415300</v>
+        <v>315300</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -12135,11 +12135,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>350300</v>
+        <v>250300</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/niva-legend/suv</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-legend-3d/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>350300</v>
+        <v>250300</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -12234,11 +12234,11 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>371300</v>
+        <v>271300</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-legend-5d/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -12276,7 +12276,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>371300</v>
+        <v>271300</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -12333,11 +12333,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>416300</v>
+        <v>316900</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-legend-urban-3d/</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -12365,7 +12365,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>416900</v>
+        <v>316900</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -12422,11 +12422,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>450300</v>
+        <v>350900</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-legend-urban-5d/</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>450900</v>
+        <v>350900</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -12511,11 +12511,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>470300</v>
+        <v>370300</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://lada-kemerovo42.ru/new_auto/lada-niva-off-road/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-off-road/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12553,7 +12553,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>470300</v>
+        <v>370300</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -12602,11 +12602,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>420200</v>
+        <v>337900</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/niva_travel/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-niva-travel/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12644,7 +12644,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>437900</v>
+        <v>337900</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -12701,11 +12701,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>460500</v>
+        <v>420300</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-vesta-cross/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -12743,7 +12743,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>520300</v>
+        <v>420300</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -12835,11 +12835,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>424000</v>
+        <v>385300</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-vesta-sw/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>485300</v>
+        <v>385300</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>571300</v>
+        <v>471300</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -13103,11 +13103,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>396900</v>
+        <v>316300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/vesta_1/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-vesta-sedan/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -13145,7 +13145,7 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>416300</v>
+        <v>316300</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -13202,11 +13202,11 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>481900</v>
+        <v>437300</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/vesta_cng/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-vesta-cng/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>537300</v>
+        <v>437300</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -13336,11 +13336,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>565900</v>
+        <v>470300</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/vesta_sport/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-vesta-sport/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>570300</v>
+        <v>470300</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -13435,11 +13435,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>404300</v>
+        <v>309300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/lada/xray/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-xray/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -13477,7 +13477,7 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>409300</v>
+        <v>309300</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -13534,11 +13534,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>395300</v>
+        <v>295300</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://lada-42.ru/auto/lada/xray/xray-cross</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/lada-xray-cross/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -13576,7 +13576,7 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>395300</v>
+        <v>295300</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>1479900</v>
+        <v>1379900</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -14096,11 +14096,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1830000</v>
+        <v>1730000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/mg-5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/mg-5/</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="N203" t="n">
-        <v>1830000</v>
+        <v>1730000</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -14169,11 +14169,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>970000</v>
+        <v>870000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/mg-6/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/mg-6/</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -14201,7 +14201,7 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>970000</v>
+        <v>870000</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -14242,11 +14242,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2750000</v>
+        <v>2650000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/mg-hs/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/mg-hs/</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -14274,7 +14274,7 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2750000</v>
+        <v>2650000</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         </is>
       </c>
       <c r="N218" t="n">
-        <v>1200000</v>
+        <v>1100000</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -15124,11 +15124,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>908000</v>
+        <v>865300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/nissan/qashqai/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/nissan-qashqai/</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -15158,7 +15158,7 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>965300</v>
+        <v>865300</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -15315,11 +15315,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>679000</v>
+        <v>579000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/nissan-new-terrano/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/nissan-new-terrano/</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -15331,7 +15331,7 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>679000</v>
+        <v>579000</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1270300</v>
+        <v>1170300</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/nissan-new-x-trail/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/nissan-new-x-trail/</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -15439,7 +15439,7 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>1270300</v>
+        <v>1170300</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -15472,11 +15472,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1607940</v>
+        <v>1600930</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/omoda/c5/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/omoda-c5/</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -15514,7 +15514,7 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>1700930</v>
+        <v>1600930</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         </is>
       </c>
       <c r="N230" t="n">
-        <v>1609900</v>
+        <v>1509900</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -15638,11 +15638,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2339900</v>
+        <v>2239900</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/omoda-s5-gt/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/omoda-s5-gt/</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -15662,7 +15662,7 @@
         </is>
       </c>
       <c r="N231" t="n">
-        <v>2339900</v>
+        <v>2239900</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -15762,11 +15762,11 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>915300</v>
+        <v>815300</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/renault-new-arkana/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-new-arkana/</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>915300</v>
+        <v>815300</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>715000</v>
+        <v>615000</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -15978,11 +15978,11 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>789900</v>
+        <v>689900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/renault-kaptur-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-kaptur-new/</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>789900</v>
+        <v>689900</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -16127,11 +16127,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>460000</v>
+        <v>360000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/renault-new-logan/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-new-logan/</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="N240" t="n">
-        <v>460000</v>
+        <v>360000</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -16176,11 +16176,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>519990</v>
+        <v>455300</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/renault/logan_stepway/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-logan-stepway/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -16218,7 +16218,7 @@
         </is>
       </c>
       <c r="N241" t="n">
-        <v>555300</v>
+        <v>455300</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -16318,11 +16318,11 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>547300</v>
+        <v>447300</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/renault-new-sandero/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-new-sandero/</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -16334,7 +16334,7 @@
         </is>
       </c>
       <c r="N243" t="n">
-        <v>547300</v>
+        <v>447300</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -16426,11 +16426,11 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>565300</v>
+        <v>465300</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/renault-new-sandero-stepway/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/renault-new-sandero-stepway/</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="N245" t="n">
-        <v>565300</v>
+        <v>465300</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -16524,11 +16524,11 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2088340</v>
+        <v>1988340</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/swm-g01f/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/swm-g01f/</t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -16556,7 +16556,7 @@
         </is>
       </c>
       <c r="N247" t="n">
-        <v>2088340</v>
+        <v>1988340</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="N249" t="n">
-        <v>1129900</v>
+        <v>1029900</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -16770,11 +16770,11 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1459000</v>
+        <v>1359000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/skoda-kodiaq-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/skoda-kodiaq-new/</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="N251" t="n">
-        <v>1459000</v>
+        <v>1359000</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -16829,11 +16829,11 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>855800</v>
+        <v>755800</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/skoda-octavia-a8/</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -16861,7 +16861,7 @@
         </is>
       </c>
       <c r="N252" t="n">
-        <v>855800</v>
+        <v>755800</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -16996,11 +16996,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>570300</v>
+        <v>470300</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/skoda-rapid-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/skoda-rapid-new/</t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="N255" t="n">
-        <v>570300</v>
+        <v>470300</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -17279,11 +17279,11 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2599900</v>
+        <v>2499900</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/soueast-dx8s/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/soueast-dx8s/</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -17311,7 +17311,7 @@
         </is>
       </c>
       <c r="N262" t="n">
-        <v>2599900</v>
+        <v>2499900</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3739000</v>
+        <v>3639000</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         </is>
       </c>
       <c r="N267" t="n">
-        <v>5099000</v>
+        <v>4999000</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -17887,11 +17887,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>562900</v>
+        <v>462900</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://car-plaza-42.ru/auto/uaz/hunter/suv</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/uaz-hunter/</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -17929,7 +17929,7 @@
         </is>
       </c>
       <c r="N274" t="n">
-        <v>562900</v>
+        <v>462900</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -18029,11 +18029,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>619400</v>
+        <v>519400</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/uaz-patriot-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/uaz-patriot-new/</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="N276" t="n">
-        <v>619400</v>
+        <v>519400</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -18254,11 +18254,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1070300</v>
+        <v>970300</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/volkswagen-jetta-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/volkswagen-jetta-new/</t>
         </is>
       </c>
       <c r="H281" t="n">
@@ -18270,7 +18270,7 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>1070300</v>
+        <v>970300</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -18362,15 +18362,15 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1621300</v>
+        <v>1521300</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/volkswagen-passat-new/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/volkswagen-passat-new/</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>1621300</v>
+        <v>1521300</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>540300</v>
+        <v>440300</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://carplaza-ac.ru/new_auto/volkswagen-new-polo/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/volkswagen-new-polo/</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="N285" t="n">
-        <v>540300</v>
+        <v>440300</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         </is>
       </c>
       <c r="N286" t="n">
-        <v>1464000</v>
+        <v>1364000</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>1499900</v>
+        <v>1399900</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
@@ -18767,11 +18767,11 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>750300</v>
+        <v>650300</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/zotye-coupa/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="J290" t="n">
@@ -18791,7 +18791,7 @@
         </is>
       </c>
       <c r="N290" t="n">
-        <v>750300</v>
+        <v>650300</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
@@ -18840,11 +18840,11 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>570300</v>
+        <v>470300</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://kemerovo-autochina.ru/new_auto/zotye-t600/</t>
+          <t>https://carplaza-avtosalon.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="J291" t="n">
@@ -18864,7 +18864,7 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>570300</v>
+        <v>470300</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>

--- a/xlsx/kemerovo.xlsx
+++ b/xlsx/kemerovo.xlsx
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1659400</v>
+        <v>1359400</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>1659400</v>
+        <v>1359400</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -8934,11 +8934,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1169000</v>
+        <v>770000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://carplaza-avtosalon.ru/new_auto/kaiyi-e5/</t>
+          <t>https://auto-atlanta-nkz.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>1486000</v>
+        <v>770000</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -9009,11 +9009,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1342800</v>
+        <v>674000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kaiyi/x3/</t>
+          <t>https://auto-atlanta-nkz.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -9059,7 +9059,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>1462000</v>
+        <v>674000</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -9084,11 +9084,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1508940</v>
+        <v>858100</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autonova-nkz.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://auto-atlanta-nkz.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>1723000</v>
+        <v>858100</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>3710000</v>
+        <v>3760000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>3710000</v>
+        <v>3760000</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5319400</v>
+        <v>5679400</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>5319400</v>
+        <v>5679400</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
